--- a/biology/Botanique/Outils_d'entretien_du_bonsaï/Outils_d'entretien_du_bonsaï.xlsx
+++ b/biology/Botanique/Outils_d'entretien_du_bonsaï/Outils_d'entretien_du_bonsaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Outils_d%27entretien_du_bonsa%C3%AF</t>
+          <t>Outils_d'entretien_du_bonsaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux outils sont nécessaires à l'entretien d'un bonsaï.
 Voici certains d'entre eux, il s'agit des outils de base, c'est le minimum à posséder pour s'occuper correctement d'un bonsaï.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Outils_d%27entretien_du_bonsa%C3%AF</t>
+          <t>Outils_d'entretien_du_bonsaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Outils de taille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les outils de taille sont les outils utilisés pour réaliser la taille de structure et d'entretien.
 Il s'agit principalement de pinces à branches concaves, pour les plus grosses branches; de ciseaux, pour les branches secondaires plus fines et pour les feuilles, et de mastic (utilisé pour protéger l'écorce de l'arbre lors d'utilisation de méthodes telles que le jin et le shari)
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Outils_d%27entretien_du_bonsa%C3%AF</t>
+          <t>Outils_d'entretien_du_bonsaï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Outils pour ligature, nettoyage et rempotage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les outils nécessaires pour la ligature sont :
 La pince coupe-fil, très semblable à la pince à branche concave ci-dessus
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Outils_d%27entretien_du_bonsa%C3%AF</t>
+          <t>Outils_d'entretien_du_bonsaï</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Outils à Jin et à Shari</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le jin et le shari sont des techniques de vieillissement artificiel de l'arbre. Les outils utilisés pour ces techniques sont :
 Les couteaux à bois
